--- a/Data/Output/Jeremiah.xlsx
+++ b/Data/Output/Jeremiah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88638E13-FE76-4170-8D67-B96541762A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD07A8C-D66E-4BDE-80CF-EF538AB6D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13380" yWindow="1575" windowWidth="12120" windowHeight="15555" xr2:uid="{A009FC8F-D8A1-4B73-9502-901DFDCD9A4B}"/>
+    <workbookView xWindow="-13380" yWindow="1575" windowWidth="12120" windowHeight="15555" xr2:uid="{EEAE71EB-AE41-41FB-8349-D98BDAB3070B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bose Earbuds" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -53,196 +53,172 @@
     <t>Alpha a6700 Camera with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, and More (10 Items)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_9?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ0t-kFU6_4fz9Lz54oVlmgQgoMur6IOkoJ8Ncc_JUNgtZvL8ZrSEBT4-Gi8YXwWCvQ.Pb9KhCtxHTYwNW-6do2DdlYeQE3hR9aWfhSQugN4Ikg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617586&amp;sprefix=%2Caps%2C319&amp;sr=8-9</t>
-  </si>
-  <si>
     <t>Alpha a6700 Mirrorless Camera Body with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_4?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ0t-kFU6_4fz9Lz54oVlmgQgoMur6IOkoJ8Ncc_JUNgtZvL8ZrSEBT4-Gi8YXwWCvQ.Pb9KhCtxHTYwNW-6do2DdlYeQE3hR9aWfhSQugN4Ikg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617586&amp;sprefix=%2Caps%2C319&amp;sr=8-4</t>
-  </si>
-  <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, Cleaning Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_7?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ0t-kFU6_4fz9Lz54oVlmgQgoMur6IOkoJ8Ncc_JUNgtZvL8ZrSEBT4-Gi8YXwWCvQ.Pb9KhCtxHTYwNW-6do2DdlYeQE3hR9aWfhSQugN4Ikg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617586&amp;sprefix=%2Caps%2C319&amp;sr=8-7</t>
-  </si>
-  <si>
     <t>Alpha a6700 Mirrorless Camera Body with E PZ 16-50mm f/3.5-5.6 OSS Lens Bundle with Multi-Device Shoulder Bag, 128GB SD Card, OTG Card Reader, Extra Battery, Smart Charger with LCD Screen</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ0t-kFU6_4fz9Lz54oVlmgQgoMur6IOkoJ8Ncc_JUNgtZvL8ZrSEBT4-Gi8YXwWCvQ.Pb9KhCtxHTYwNW-6do2DdlYeQE3hR9aWfhSQugN4Ikg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617586&amp;sprefix=%2Caps%2C319&amp;sr=8-3</t>
-  </si>
-  <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ0t-kFU6_4fz9Lz54oVlmgQgoMur6IOkoJ8Ncc_JUNgtZvL8ZrSEBT4-Gi8YXwWCvQ.Pb9KhCtxHTYwNW-6do2DdlYeQE3hR9aWfhSQugN4Ikg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617586&amp;sprefix=%2Caps%2C319&amp;sr=8-2</t>
-  </si>
-  <si>
     <t>5.0 out of 5 stars</t>
   </si>
   <si>
     <t>a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
   </si>
   <si>
-    <t>https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sr_1_20?crid=11D0YIP6W3YDS&amp;dib=eyJ2IjoiMSJ9.noMsEI3P_dkspfAUC7QHnC_RSYY-zIQ1ouLG3oQE39HGjHj071QN20LucGBJIEps.8iXMogIwcWBX_amDUs6EO5l_MQO7bW2m1qiP0hLMsLs&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710617588&amp;sprefix=%2Caps%2C319&amp;sr=8-20</t>
+    <t>https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sr_1_20?crid=2TSFXMAXW7XNM&amp;dib=eyJ2IjoiMSJ9.noMsEI3P_dkspfAUC7QHnC_RSYY-zIQ1ouLG3oQE39HGjHj071QN20LucGBJIEps.8iXMogIwcWBX_amDUs6EO5l_MQO7bW2m1qiP0hLMsLs&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710619961&amp;sprefix=sony+a6700%2Caps%2C895&amp;sr=8-20</t>
   </si>
   <si>
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>PerL Bluetooth Earbuds, True Wireless Earbuds, Personalized Sound Powered by Masimo Adaptive Acoustic Technology, Noise Cancelling Earbuds, Customizable Controls, IPX4 Sweat &amp; Water Resistance</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Denon-Bluetooth-Canceling-Personalized-Technology/dp/B0C61G4X7P/ref=sr_1_99?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.mIs6jYZLwbsuTPaIEBGmh4vub_K1mX6njkRy1oXxfMrGjHj071QN20LucGBJIEps.yLef7NZ9G8LCZu57DeHX29SBl1-DVPwOm-HovcpBwb0&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617624&amp;sprefix=bose%2Caps%2C313&amp;sr=8-99</t>
-  </si>
-  <si>
     <t>New Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, White Smoke with Green Extreme Portable Wireless Charger (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-10</t>
-  </si>
-  <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
     <t>QuietComfort Ultra True Wireless Bluetooth Adjustable Noise Cancelling Earbuds, Spatial Audio, Up to 6 Hours of Play Time, Black Bundle with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-11</t>
-  </si>
-  <si>
     <t>4.0 out of 5 stars</t>
   </si>
   <si>
     <t>NEW Bose Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, White Smoke</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFVB5VN/ref=sr_1_5_mod_primary_new?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-5</t>
-  </si>
-  <si>
     <t>Bose QuietComfort Earbuds II Bundle with Protective Silicone Carrying Case and Cloth - Active Wireless Noise Cancelling in-Ear Bluetooth Headphones with Personalized Sound, Bose Earbuds 2 (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-6</t>
-  </si>
-  <si>
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>WF-1000XM5 The Best Truly Wireless Bluetooth Noise Canceling Earbuds Headphones with Alexa Built in, Black- New Model</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Sony-WF-1000XM5-Bluetooth-Canceling-Headphones/dp/B0C33XXS56/ref=sr_1_51?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.CCTgkdjlbWP6spWEUwxa-Bc_5iBcBmicHsIfHXL_UPzGjHj071QN20LucGBJIEps.oLN-26VGiOI71OIqVNF6t0LA06-5qmMa03z2OYAgsRM&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617614&amp;sprefix=bose%2Caps%2C313&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>3.9 out of 5 stars</t>
-  </si>
-  <si>
     <t>QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>QuietComfort Ultra True Wireless Bluetooth Adjustable Noise Cancelling Earbuds, Spatial Audio, Up to 6 Hours of Play Time, Bundle with Fit Kit (Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBQCH15/ref=sr_1_36?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.v5ouBwJ4Kp2UjDA2gp3ojY_yc7bMCOiQciIz_m_9jwHGjHj071QN20LucGBJIEps.wV-rmFLEl9HGznYke5vnaxIh7dP-9BkKkCGPD37mJIo&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617611&amp;sprefix=bose%2Caps%2C313&amp;sr=8-36</t>
-  </si>
-  <si>
     <t>QuietComfort Earbuds II, Triple Black with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_13?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-13</t>
-  </si>
-  <si>
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>Pixel Buds Pro - Noise Canceling Earbuds - Up to 31 Hour Battery Life with Charging Case - Bluetooth Headphones - Compatible with Android - Fog</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Google-Pixel-Buds-Pro-Headphones/dp/B0B1NGPY94/ref=sr_1_21?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.Rk_D0Ohuqgen1C23-B6gCPDUEg68bKsOASyD8AYSBDnGjHj071QN20LucGBJIEps._GVjgNMFrnbWDLX3H-Jtg0aAr6yMDCJF_4Xx4KSP0Zw&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617609&amp;sprefix=bose%2Caps%2C313&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>4.4 out of 5 stars</t>
-  </si>
-  <si>
     <t>Samsung Galaxy Buds FE True Wireless Bluetooth Earbuds, Comfort and Secure in Ear Fit, Wing-Tip Design, Auto Switch Audio, Touch Control, Built-in Voice Assistant, US Version, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_21?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>Open Ear Clip Wireless Earbuds Bluetooth 5.3, Sports Earphones Built-in Microphone with Earhooks &amp; Ear Hook, Wireless Charging Case &amp; Display, Waterproof Fitness Headphones for Running</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bluetooth-Earphones-Microphone-Waterproof-Headphones/dp/B0CQQF6QKZ/ref=sr_1_19?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.Rk_D0Ohuqgen1C23-B6gCPDUEg68bKsOASyD8AYSBDnGjHj071QN20LucGBJIEps._GVjgNMFrnbWDLX3H-Jtg0aAr6yMDCJF_4Xx4KSP0Zw&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617609&amp;sprefix=bose%2Caps%2C313&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>Bone Conduction Headphones, Bluetooth Earbuds Wireless Headphones Swimming Headphones Built-in 32GB Open Ear Headphones Waterproof Wireless Earphones Headset for Swimming Running</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hyyeosd-Conduction-Headphones-Bluetooth-Waterproof/dp/B0CMD2K7LX/ref=sr_1_68?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.Eav61IRWLL33dyj-7ZTGYBlbIE9Vg1P0dwdCK_WN2MrGjHj071QN20LucGBJIEps.kEEh7JmA-ks1H6OJsQRInOFavX02aqIa2NNfeOUJm4w&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617618&amp;sprefix=bose%2Caps%2C313&amp;sr=8-68</t>
+    <t>by Anker Space A40 Auto-Adjustable Active Noise Cancelling Wireless Earbuds, Reduce Noise by Up to 98%, 50H Playtime, Comfortable Fit, Hi-Res Sound, App Customization, Wireless Charge</t>
+  </si>
+  <si>
+    <t>Open Ear Clip Earbuds Bluetooth 5.3 Wireless Headphones with 4 HD Mic and 42 Hours Reproduction Dual LED Display Charging Case,IPX7 Waterproof Fitness Earbuds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bluetooth-Wireless-Headphones-Reproduction-Waterproof/dp/B0CNK9S37C/ref=sr_1_35?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.Kp_6xolZSAstZ0ycLp94gI_yc7bMCOiQciIz_m_9jwHGjHj071QN20LucGBJIEps.jTBHDZkyA02GipO1-bPDosNFyG-I5Ak5WQnoPvekIzw&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619984&amp;sprefix=bose%2Caps%2C326&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Open Ear Clip on Headphones, Wireless Earbuds Bluetooth 5.3 Sport Earphones Built-in Mic with Ear Hooks 36H Playtime Ear Buds LED Display Charging Case, Waterproof Design for Running Fitness, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Headphones-Wireless-Bluetooth-Earphones-Waterproof/dp/B0CPSB16D3/ref=sr_1_16?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619976&amp;sprefix=bose%2Caps%2C326&amp;sr=8-16</t>
   </si>
   <si>
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>P40i by Anker, Noise Cancelling Wireless Earbuds, Adaptive Noise Cancelling to Environments, Heavy Bass, 60H Playtime, 2-in-1 Case and Phone Stand, IPX5, Wireless Charging, Bluetooth 5.3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Soundcore-Cancelling-Wireless-Environments-Bluetooth/dp/B0CQXG17RL/ref=sr_1_69?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.Eav61IRWLL33dyj-7ZTGYBlbIE9Vg1P0dwdCK_WN2MrGjHj071QN20LucGBJIEps.kEEh7JmA-ks1H6OJsQRInOFavX02aqIa2NNfeOUJm4w&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617618&amp;sprefix=bose%2Caps%2C313&amp;sr=8-69</t>
-  </si>
-  <si>
-    <t>by Anker Space A40 Auto-Adjustable Active Noise Cancelling Wireless Earbuds, Reduce Noise by Up to 98%, 50H Playtime, Comfortable Fit, Hi-Res Sound, App Customization, Wireless Charge</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_15?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Open Ear Clip on Headphones, Wireless Earbuds Bluetooth 5.3 Sport Earphones Built-in Mic with Ear Hooks 36H Playtime Ear Buds LED Display Charging Case, Waterproof Design for Running Fitness, Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Headphones-Wireless-Bluetooth-Earphones-Waterproof/dp/B0CPSB16D3/ref=sr_1_16?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-16</t>
+    <t>Invisible Sleep Headphones,Sleep Earbuds for Side Sleepers,Sleepbuds Comfortable Noise Blocking, Bluetooth 5.3 Wireless Open Ear Headphones for Sleeping,Driving,Hiking,Cycling - Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Invisible-Headphones-Sleepbuds-Comfortable-Bluetooth/dp/B0CT2715M7/ref=sr_1_58?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.CCTgkdjlbWP6spWEUwxa-Bc_5iBcBmicHsIfHXL_UPxoa5lxu4Xw3A9tG2iXzl3W7qqOcoUrEba3iHUiixZSveYiqKolVkCLIA31RnDx3WsoBCxEIamXcdKOH-Q_0yXsobUkkIUH08RNNJ71bfFHb4alj7JXRY6rqiUoKA67EeeVlONTCbWtv4m5ERnF6KILPspcFNJlVCgN8JqeyUuLwoeI5FWowC_k7pBlCaoC7vk.HcjgWPoq3MWmodZJp_L7GD1gp-TWEBhp-R50ZxLXGNc&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619987&amp;sprefix=bose%2Caps%2C326&amp;sr=8-58</t>
+  </si>
+  <si>
+    <t>3.2 out of 5 stars</t>
   </si>
   <si>
     <t>Wireless Earbuds Bluetooth Headphones Sport, Bluetooth 5.3 Earbud 3D HiFi Stereo Over Ear Buds, 48Hrs Earhooks Earphone with Noise Cancelling Mic, IP7 Waterproof Headset for Workout/Running/Gym, Rose</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Wireless-Bluetooth-Headphones-Cancelling-Waterproof/dp/B0CHY8LMBP/ref=sr_1_20?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>Open Ear Headphones True Wireless Bluetooth Headphones, Ear Clip Earbuds, Sweat Resistant, Fast Charging, 24HRS Playtime, Open Ear Earbuds for Workout, Driving, Meeting</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Wigfar-Headphones-Wireless-Bluetooth-Resistant/dp/B0CDPVW4V4/ref=sr_1_100?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.mIs6jYZLwbsuTPaIEBGmh4vub_K1mX6njkRy1oXxfMrGjHj071QN20LucGBJIEps.yLef7NZ9G8LCZu57DeHX29SBl1-DVPwOm-HovcpBwb0&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617624&amp;sprefix=bose%2Caps%2C313&amp;sr=8-100</t>
+    <t>https://www.amazon.com/Wireless-Bluetooth-Headphones-Cancelling-Waterproof/dp/B0CHY8LMBP/ref=sr_1_20?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619976&amp;sprefix=bose%2Caps%2C326&amp;sr=8-20</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Wireless, Bluetooth, Proprietary Active Noise Cancelling Technology In-Ear Headphones with Personalized Noise Cancellation &amp; Sound, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619976&amp;sprefix=bose%2Caps%2C326&amp;sr=8-4</t>
   </si>
   <si>
     <t>QuietComfort Noise Cancelling Earbuds-Bluetooth Wireless Earphones, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619976&amp;sprefix=bose%2Caps%2C326&amp;sr=8-8</t>
   </si>
   <si>
     <t>SoundSport Free, True Wireless Earbuds, (Sweatproof Bluetooth Headphones for Workouts and Sports), Midnight Blue / Citron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617606&amp;sprefix=bose%2Caps%2C313&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Studio Buds + | True Wireless Noise Cancelling Earbuds, Enhanced Apple &amp; Android Compatibility, Built-in Microphone, Sweat Resistant Bluetooth Headphones, Spatial Audio - Transparent</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Beats-Cancelling-Compatibility-Microphone-Headphones/dp/B0BZK2Z2TC/ref=sr_1_35?crid=D1VNONDC3Q2L&amp;dib=eyJ2IjoiMSJ9.v5ouBwJ4Kp2UjDA2gp3ojY_yc7bMCOiQciIz_m_9jwHGjHj071QN20LucGBJIEps.wV-rmFLEl9HGznYke5vnaxIh7dP-9BkKkCGPD37mJIo&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710617611&amp;sprefix=bose%2Caps%2C313&amp;sr=8-35</t>
+    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619976&amp;sprefix=bose%2Caps%2C326&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>by Anker P20i True Wireless Earbuds, 10mm Drivers with Big Bass, Bluetooth 5.3, 30H Long Playtime, Water-Resistant, 2 Mics for AI Clear Calls, 22 Preset EQs, Customization via App</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Soundcore-Wireless-Bluetooth-Water-Resistant-Customization/dp/B0BTYCRJSS/ref=sr_1_54?crid=2P1QX6JNU1SE5&amp;dib=eyJ2IjoiMSJ9.CCTgkdjlbWP6spWEUwxa-Bc_5iBcBmicHsIfHXL_UPxoa5lxu4Xw3A9tG2iXzl3W7qqOcoUrEba3iHUiixZSveYiqKolVkCLIA31RnDx3WsoBCxEIamXcdKOH-Q_0yXsobUkkIUH08RNNJ71bfFHb4alj7JXRY6rqiUoKA67EeeVlONTCbWtv4m5ERnF6KILPspcFNJlVCgN8JqeyUuLwoeI5FWowC_k7pBlCaoC7vk.HcjgWPoq3MWmodZJp_L7GD1gp-TWEBhp-R50ZxLXGNc&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710619987&amp;sprefix=bose%2Caps%2C326&amp;sr=8-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_9?dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ3_ddOYsPAVxkZhStUkZXkBKrkbMMvWcQbogsyVoWwGjJvL8ZrSEBT4-Gi8YXwWCvQ.n28Wp5GQpK6zsMQenD2kMQ4bNVauQ1NNVkhHAaogi_g&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710620355&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_4?dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ3_ddOYsPAVxkZhStUkZXkBKrkbMMvWcQbogsyVoWwGjJvL8ZrSEBT4-Gi8YXwWCvQ.n28Wp5GQpK6zsMQenD2kMQ4bNVauQ1NNVkhHAaogi_g&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710620355&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_7?dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ3_ddOYsPAVxkZhStUkZXkBKrkbMMvWcQbogsyVoWwGjJvL8ZrSEBT4-Gi8YXwWCvQ.n28Wp5GQpK6zsMQenD2kMQ4bNVauQ1NNVkhHAaogi_g&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710620355&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ3_ddOYsPAVxkZhStUkZXkBKrkbMMvWcQbogsyVoWwGjJvL8ZrSEBT4-Gi8YXwWCvQ.n28Wp5GQpK6zsMQenD2kMQ4bNVauQ1NNVkhHAaogi_g&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710620355&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NR5eIiQri_xjaGAHowlC11zUtXRMe-gdME0BatdZGSKNm7KPL9bXwaUU6Zpxjtf5aw47Q3sovq06yVf22slTCqnAY8W_XC_keYurHaN0_KdEeO8RjhYziDWpLmLR9YpdJ3_ddOYsPAVxkZhStUkZXkBKrkbMMvWcQbogsyVoWwGjJvL8ZrSEBT4-Gi8YXwWCvQ.n28Wp5GQpK6zsMQenD2kMQ4bNVauQ1NNVkhHAaogi_g&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1710620355&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFVB5VN/ref=sr_1_5_mod_primary_new?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_13?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_21?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_15?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Headphones-Wireless-Bluetooth-Earphones-Waterproof/dp/B0CPSB16D3/ref=sr_1_16?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Wireless-Bluetooth-Headphones-Cancelling-Waterproof/dp/B0CHY8LMBP/ref=sr_1_20?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=QSF3FO1GX9OX&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uZHtNoKAhEVMRZ9FLmkoxhpU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO7vO-AMipoPmMxmzDFwNTOCFk_aa9xt-dCmHc13XNnKmaBbK7ZScrsI3NKK2dR6B_kZUyeBU2bWrLY8qACBIEndT4EXkH5Z3mKGvpmcYmLQca49sgEHi6a2fNLk1fUMZXU.YemrI6Tb3hP7SNt5W0i8MLONm45EWEa279EBznXFHr4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1710620365&amp;sprefix=bose%2Caps%2C325&amp;sr=8-9</t>
   </si>
 </sst>
 </file>
@@ -593,8 +569,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8989959-F28A-4030-BA5F-1BF02609AE38}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D67B2B-3898-4E97-8353-E56CC27912EB}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,195 +592,186 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>299</v>
+        <v>279.99</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>279.99</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>278</v>
+        <v>205.86</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>89.99</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>205.86</v>
+        <v>39.99</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>190</v>
+        <v>35.99</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>89.99</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13">
-        <v>79.989999999999995</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>79.989999999999995</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>69.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -812,102 +779,88 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>39.99</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>39.99</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>35.99</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>28.99</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E64C9C9-775F-430B-BEDF-F3CA0829AB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E83D17-76FA-43B8-B1ED-E471B83497EF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -942,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1997.67</v>
@@ -950,10 +903,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1862.94</v>
@@ -961,10 +914,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1567.72</v>
@@ -972,10 +925,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1498</v>
@@ -983,30 +936,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>1462.94</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>49.99</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67D60B2-4822-42B1-A439-3113BA8F9244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6B92E0-00E6-4CBD-9138-E5458CB0DAD3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Jeremiah.xlsx
+++ b/Data/Output/Jeremiah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE70129-A22F-4052-82FD-22CFC83E7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7107B9F-D8AE-4F94-90A7-AA096F42070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{258DF719-4C0B-4FD1-AAC0-49EA7E15185A}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{1DE81699-3652-4D65-889E-4AB25B130A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bose Earbuds" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -56,25 +56,25 @@
     <t>Alpha a6700 Camera with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, and More (10 Items)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-13</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-6</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, Cleaning Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-5</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E PZ 16-50mm f/3.5-5.6 OSS Lens Bundle with Multi-Device Shoulder Bag, 128GB SD Card, OTG Card Reader, Extra Battery, Smart Charger with LCD Screen</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-3</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
@@ -83,7 +83,7 @@
     <t>5.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-2</t>
   </si>
   <si>
     <t>Cage Kit for Sony A6700 with a Cable Clamp for HDMI, Built-in Quick Release Plate for Arca-Type, Film Movie Making Camera Video Cage with Shoe Mount, 1/4''-20 &amp; 3/8''-16 Threaded Holes - 4336</t>
@@ -92,7 +92,7 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-14</t>
+    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-14</t>
   </si>
   <si>
     <t>External Cooling Fans Magnetic Mounting for Sony A7M4 A7cII ZV-1 A6700 Cameras</t>
@@ -101,7 +101,7 @@
     <t>1.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Njk5NjIyNDA0MTQ3MDgwOjE3MTEwMTU5NDE6c3BfYnRmOjMwMDEwNTA2ODEyNDMwMjo6MDo6&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3D1G2NP2TRYYM7L%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711015941%26sprefix%3Dsony%252Caps%252C301%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTA1MDY4MTI0MzAyOjowOjo&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
@@ -110,13 +110,13 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Njk5NjIyNDA0MTQ3MDgwOjE3MTEwMTU5NDE6c3BfYnRmOjMwMDExODc3MTQzNzYwMjo6MDo6&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1G2NP2TRYYM7L%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711015941%26sprefix%3Dsony%252Caps%252C301%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTE4NzcxNDM3NjAyOjowOjo&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>Camera External Cooling System/Cooling Fan for Live Broadcast - with Cooling Sheet - for Sony A7M4/ZVE1/A6700/A7C2/ZV-E10/ZV1/A7C/A7S3/FX3,for Canon R5/R6, for Fujifilm X-T4/XS10 Cameras</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Njk5NjIyNDA0MTQ3MDgwOjE3MTEwMTU5NDE6c3BfbXRmOjMwMDExNTU5MzEzMjAwMjo6MDo6&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_12_sspa%3Fcrid%3D1G2NP2TRYYM7L%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711015941%26sprefix%3Dsony%252Caps%252C301%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9tdGY6MzAwMTE1NTkzMTMyMDAyOjowOjo&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_12_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Camera Case for Sony Alpha 6700, Soft Silicone Protective Cover a6700 DSLR Camera Anti-Scratch Slim Fit Body Skin Protector Housing Sleeve for Sony A6700 Mirrorless Camera Black</t>
@@ -125,10 +125,10 @@
     <t>4.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Njk5NjIyNDA0MTQ3MDgwOjE3MTEwMTU5NDE6c3BfYnRmOjMwMDE0NTE1OTY0NDcwMjo6MDo6&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_20_sspa%3Fcrid%3D1G2NP2TRYYM7L%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711015941%26sprefix%3Dsony%252Caps%252C301%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Easy-Hood-Protective-Anti-Scratch-Mirrorless/dp/B0CRZ4M9LS/ref=sr_1_20?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.bJKtFB-Z-PLkS19O8KCtkeik93eBracsniJK37OMo4_GjHj071QN20LucGBJIEps.ifzz_Iyi_nDBHKvjZ_vmKduWGRJ8feuvWEbeNuRAxgY&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015944&amp;sprefix=sony%2Caps%2C301&amp;sr=8-20</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTQ1MTU5NjQ0NzAyOjowOjo&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Easy-Hood-Protective-Anti-Scratch-Mirrorless/dp/B0CRZ4M9LS/ref=sr_1_19?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.HyChLc2M0RDqUC0Dvw1ingna8KfLNYGSvIfPhpCt1_XGjHj071QN20LucGBJIEps.e1rVPpNHxcEnmlIxTnsgDzEEgGb5Ljj4wrfOQ0i5Msg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016574&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-19</t>
   </si>
   <si>
     <t>A6700 Eyecup Eyepiece, Soft Silicon Extended Camera Eye Cup Viewfinder Special Designed for Sony A6700 Alpha APS-C Mirrorless Camera Replaces Sony FDA-EP20 (Not Affect The Use of A6700 Camera Screen)</t>
@@ -137,10 +137,10 @@
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/ROaXOdqkqUKNN4VOX0D3p7cAAAGOYH9VXQEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICCTQbLv/https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=1G2NP2TRYYM7L&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.ty5KbicKArATe_l4KdWOzg.cnqcr1BBJ0QXFzGx4LiVeRsz6CLmumcIGBybIWm7GLw&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CKT5HJZ9&amp;pd_rd_r=4e4b2b86-1b8a-49f9-bd58-84f431a1077e&amp;pd_rd_w=sSZip&amp;pd_rd_wg=YW2Dr&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=ZHGQDSF5VJN2NWA2ZA5R&amp;qid=1711015941&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony%2Caps%2C301&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=1G2NP2TRYYM7L&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711015941&amp;sprefix=sony%2Caps%2C301&amp;sr=8-16</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RI976N5GjQMPnbmpgq_1N6gAAAGOYIjqIQEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICAEziDS/https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3OVQZPJP2GBDR&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.ty5KbicKArATe_l4KdWOzg.cnqcr1BBJ0QXFzGx4LiVeRsz6CLmumcIGBybIWm7GLw&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CKT5HJZ9&amp;pd_rd_r=c82d7f5b-0642-4bb1-8b34-bb9a248f9bc3&amp;pd_rd_w=BNhz1&amp;pd_rd_wg=PyLJp&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=P8RATQ53SDHGFV4T04MS&amp;qid=1711016569&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a%2Caps%2C487&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-16</t>
   </si>
   <si>
     <t>New Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, White Smoke with Green Extreme Portable Wireless Charger (Black)</t>
@@ -149,7 +149,7 @@
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-10</t>
   </si>
   <si>
     <t>NEW Bose Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, Black</t>
@@ -158,19 +158,19 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-5</t>
   </si>
   <si>
     <t>Bose QuietComfort Earbuds II Bundle with Protective Silicone Carrying Case and Cloth - Active Wireless Noise Cancelling in-Ear Bluetooth Headphones with Personalized Sound, Bose Earbuds 2 (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-6</t>
+    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-6</t>
   </si>
   <si>
     <t>QuietComfort Ultra True Wireless Bluetooth Adjustable Noise Cancelling Earbuds, Spatial Audio, Up to 6 Hours of Play Time, Black Bundle with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-11</t>
   </si>
   <si>
     <t>QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation, Black</t>
@@ -179,25 +179,37 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-3</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Triple Black with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_18?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_18?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-18</t>
   </si>
   <si>
     <t>Elite 10 True Wireless Bluetooth Earbuds – Advanced Active Noise Cancelling with Dolby Atmos Surround Sound, All-Day Comfort, Multipoint, Crystal-Clear Calls – Cream</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNTk1MDE3ODc5MzMzMDgwOjE3MTEwMTU5NTA6c3BfYnRmOjMwMDA3OTg3ODQ1NDcwMjo6MDo6&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsr_1_22_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015950%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMDc5ODc4NDU0NzAyOjowOjo&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsr_1_17_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Technics HiFi True Wireless Multipoint Bluetooth Earbuds II, Active Noise Cancelling, 3 Device MultiPoint Connectivity, Impressive Call Quality, LDAC Compatible, EAH-AZ40M2-K (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3Mjc5Njg2NzYwMjo6Mzo6&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CFCKJB8M%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>HiFi True Wireless Multipoint Bluetooth Earbuds II, Active Noise Cancelling, 3 Device MultiPoint Connectivity, Impressive Call Quality, LDAC Compatible, EAH-AZ40M2-K (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9idGY6MzAwMDcyNzk2ODY3NjAyOjowOjo&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsr_1_22_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>Elite 8 Active - Best and Most Advanced Sports Wireless Bluetooth Earbuds with Comfortable Secure Fit, Military Grade Durability, Active Noise Cancellation, Dolby Surround Sound – Navy</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNTk1MDE3ODc5MzMzMDgwOjE3MTEwMTU5NTA6c3BfbXRmOjMwMDA0MjA0NTE1MTgwMjo6MDo6&amp;url=%2FJabra-Elite-Active-Comfortable-Cancellation%2Fdp%2FB0CB92Z7V2%2Fref%3Dsr_1_17_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015950%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjIxMTYxMDI1MTIxMDgwOjE3MTEwMTY1ODM6c3BfYXRmX25leHQ6MzAwMDQyMDQ1MTUxODAyOjowOjo&amp;url=%2FJabra-Elite-Active-Comfortable-Cancellation%2Fdp%2FB0CB92Z7V2%2Fref%3Dsr_1_18_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016583%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
   </si>
   <si>
     <t>by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
@@ -206,19 +218,19 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNTk1MDE3ODc5MzMzMDgwOjE3MTEwMTU5NTA6c3BfYXRmOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015950%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9hdGY6MzAwMDgwNDY5NDg1NTAyOjowOjo&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_1_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Soundcore by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTA0MzkxMzY3MDczMDgwOjE3MTEwMTU5NTA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4MDQ2OTQ4NTUwMjo6MTo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D1MNG8GFO6R45S%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY08nIx2XcAElNyQ8vRk22xaG9CRO5Z6zkW-GjsDKspGHo.J_TGuny-E1YLN6rhyL8cVljdNnKDapBmRAQrqkX4fbM%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CCRSQG8K%26pd_rd_r%3Dc9f3083c-0162-48d7-bcdf-5c6b2e513eb5%26pd_rd_w%3DzTPb2%26pd_rd_wg%3DN0xrb%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DAMCHG1BFSYY0ZHQAYR7F%26qid%3D1711015950%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C301%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4MDQ2OTQ4NTUwMjo6MTo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CCRSQG8K%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Blue), Small</t>
   </si>
   <si>
-    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_15?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-15</t>
+    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_15?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-15</t>
   </si>
   <si>
     <t>Charging Case for QuietComfort Earbuds II, Black</t>
@@ -227,73 +239,70 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_21?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Black), Small</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTkwMDAxMTA1OTU0MDgwOjE3MTEwMTU5NTQ6c3BfYXRmX25leHQ6MzAwMDQ5Mzg2Nzk5MzAyOjowOjo&amp;url=%2FJBL-Tune-Flex-Wireless-Cancelling%2Fdp%2FB0C1QNRGHC%2Fref%3Dsr_1_17_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015954%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_21?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>EarMate 1 Open Ear Headphones, Bluetooth 5.3 Wireless Earbuds Air Conduction 45Hrs Playtime with Charging Case, Panoramic Deep Bass with 16.2mm Drivers, Compatible with iPhone Android</t>
+  </si>
+  <si>
+    <t>4.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjIxMTYxMDI1MTIxMDgwOjE3MTEwMTY1ODM6c3BfYXRmX25leHQ6MzAwMTEwNjQ2OTM4NjAyOjowOjo&amp;url=%2FPAINTAUDIO-Headphones-Bluetooth-Conduction-Compatible%2Fdp%2FB0CJLFX773%2Fref%3Dsr_1_17_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016583%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
   </si>
   <si>
     <t>Samsung Galaxy Buds FE True Wireless Bluetooth Earbuds, Comfort and Secure in Ear Fit, Wing-Tip Design, Auto Switch Audio, Touch Control, Built-in Voice Assistant, US Version, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_16?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-16</t>
+    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_16?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-16</t>
   </si>
   <si>
     <t>The Everyday Bluetooth Wireless Earbuds with Microphone- Stereo Sound in-Ear Bluetooth Headset True Wireless Earbuds 32 Hours Playtime (Matte Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Everyday-Raycon-Bluetooth-Wireless-Microphone/dp/B095T14D4S/ref=sr_1_20?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015954&amp;sprefix=bose%2Caps%2C301&amp;sr=8-20</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMDYwMzY5ODUzNzAyOjowOjo&amp;url=%2FEveryday-Raycon-Bluetooth-Wireless-Microphone%2Fdp%2FB095T14D4S%2Fref%3Dsr_1_7_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Everyday-Raycon-Bluetooth-Wireless-Microphone/dp/B095T14D4S/ref=sr_1_20?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016583&amp;sprefix=bose%2Caps%2C309&amp;sr=8-20</t>
   </si>
   <si>
     <t>by Anker Space A40 Auto-Adjustable Active Noise Cancelling Wireless Earbuds, Reduce Noise by Up to 98%, 50H Playtime, Comfortable Fit, Hi-Res Sound, App Customization, Wireless Charge</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_19?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-19</t>
+    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_19?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-19</t>
   </si>
   <si>
     <t>Wireless Earbuds 75hrs Bluetooth 5.3 Headphone Sport, 2024 Bluetooth Earbuds Stereo Deep Bass Over Ear Bud with Earhooks, ENC Noise Cancelling Mic, IPX7 Waterproof Earphone for Workout/Running</t>
   </si>
   <si>
-    <t>4.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTA0MzkxMzY3MDczMDgwOjE3MTEwMTU5NTA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0MzQ4ODIyMjIwMjo6NDo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D1MNG8GFO6R45S%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY08nIx2XcAElNyQ8vRk22xaG9CRO5Z6zkW-GjsDKspGHo.J_TGuny-E1YLN6rhyL8cVljdNnKDapBmRAQrqkX4fbM%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSXV3GK4%26pd_rd_r%3Dc9f3083c-0162-48d7-bcdf-5c6b2e513eb5%26pd_rd_w%3DzTPb2%26pd_rd_wg%3DN0xrb%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DAMCHG1BFSYY0ZHQAYR7F%26qid%3D1711015950%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C301%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds Bluetooth Headphones 120hrs Playtime HiFi Stereo Wireless Headphones with HD Mic Deep Bass Wireless Earphones with Dual LED Display USB-C IP7 Waterproof Earbuds for Running Sports</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNTk1MDE3ODc5MzMzMDgwOjE3MTEwMTU5NTA6c3BfbXRmOjMwMDA5NTY1NTAzNjkwMjo6MDo6&amp;url=%2FWireless-Bluetooth-Headphones-Earphones-Waterproof%2Fdp%2FB0CFHHQ2LB%2Fref%3Dsr_1_12_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015950%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0MzQ4ODIyMjIwMjo6NDo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSXV3GK4%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Headphones Wireless Earbuds Sport, Bluetooth 5.3 Over Ear Buds Stereo Deep Bass Headset with Earhooks, 48H Wireless Earphones with HD Mic, IP7 Waterproof Earbud for Sports/Running/Workout</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNTk1MDE3ODc5MzMzMDgwOjE3MTEwMTU5NTA6c3BfbXRmOjMwMDE0NDU2ODk1MTUwMjo6MDo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsr_1_7_sspa%3Fcrid%3D1MNG8GFO6R45S%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711015950%26sprefix%3Dbose%252Caps%252C301%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTA0MzkxMzY3MDczMDgwOjE3MTEwMTU5NTA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NDU2ODk1MTUwMjo6Mjo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D1MNG8GFO6R45S%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY08nIx2XcAElNyQ8vRk22xaG9CRO5Z6zkW-GjsDKspGHo.J_TGuny-E1YLN6rhyL8cVljdNnKDapBmRAQrqkX4fbM%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSYWR1R2%26pd_rd_r%3Dc9f3083c-0162-48d7-bcdf-5c6b2e513eb5%26pd_rd_w%3DzTPb2%26pd_rd_wg%3DN0xrb%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DAMCHG1BFSYY0ZHQAYR7F%26qid%3D1711015950%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C301%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMTQ0NTY4OTUxNTAyOjowOjo&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsr_1_12_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NDU2ODk1MTUwMjo6Mjo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSYWR1R2%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Wireless, Bluetooth, Proprietary Active Noise Cancelling Technology In-Ear Headphones with Personalized Noise Cancellation &amp; Sound, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-4</t>
   </si>
   <si>
     <t>QuietComfort Noise Cancelling Earbuds-Bluetooth Wireless Earphones, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-8</t>
   </si>
   <si>
     <t>SoundSport Free, True Wireless Earbuds, (Sweatproof Bluetooth Headphones for Workouts and Sports), Midnight Blue / Citron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=1MNG8GFO6R45S&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711015950&amp;sprefix=bose%2Caps%2C301&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-9</t>
   </si>
 </sst>
 </file>
@@ -677,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B27D81-4E03-44C7-90F9-59C37465E2E2}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B47E3-4F35-4531-AB7F-866B12844FDF}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="188.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="187.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -811,7 +820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -828,18 +837,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
-        <v>2552</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>53</v>
@@ -850,72 +859,72 @@
         <v>54</v>
       </c>
       <c r="B10" s="3">
+        <v>164</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3">
+        <v>159</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2552</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3">
         <v>129</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
         <v>227</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3">
-        <v>227</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2492</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="3">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3">
+        <v>227</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" s="3">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3">
         <v>99</v>
@@ -927,168 +936,202 @@
         <v>2492</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="3">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="3">
-        <v>79</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="3">
-        <v>859</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3">
-        <v>28923</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3">
-        <v>5342</v>
+        <v>860</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3">
-        <v>2691</v>
+        <v>28923</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3">
+        <v>28923</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="3">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3395</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5342</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="3">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3">
-        <v>838</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3">
-        <v>838</v>
+        <v>2690</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="B22" s="3">
+        <v>26</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
-        <v>11522</v>
+        <v>838</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="3">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3">
+        <v>838</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
-        <v>35480</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11522</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3">
+    </row>
+    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3">
+        <v>35480</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3">
         <v>39317</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6CBDF-9417-4AD2-9114-B1998B1FF956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E83A70-3429-437F-B74C-6079762C76CE}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1332,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61927BF-ABF8-4536-8051-5360B2A0B805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FDCC2-C115-4A19-BD46-FB9817987C23}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Jeremiah.xlsx
+++ b/Data/Output/Jeremiah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7107B9F-D8AE-4F94-90A7-AA096F42070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8B8BF7-A1F4-4CED-871C-4CDA46A6A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{1DE81699-3652-4D65-889E-4AB25B130A3F}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{72A0315B-6DA0-4D91-ABE7-C34B2C9ED950}"/>
   </bookViews>
   <sheets>
     <sheet name="Bose Earbuds" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -56,25 +56,25 @@
     <t>Alpha a6700 Camera with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, and More (10 Items)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-13</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-6</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, Cleaning Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-5</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E PZ 16-50mm f/3.5-5.6 OSS Lens Bundle with Multi-Device Shoulder Bag, 128GB SD Card, OTG Card Reader, Extra Battery, Smart Charger with LCD Screen</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-3</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
@@ -83,7 +83,16 @@
     <t>5.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>External Cooling Fans Magnetic Mounting for Sony A7M4 A7cII ZV-1 A6700 Cameras</t>
+  </si>
+  <si>
+    <t>1.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDEwNTA2ODEyNDMwMjo6MDo6&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cage Kit for Sony A6700 with a Cable Clamp for HDMI, Built-in Quick Release Plate for Arca-Type, Film Movie Making Camera Video Cage with Shoe Mount, 1/4''-20 &amp; 3/8''-16 Threaded Holes - 4336</t>
@@ -92,16 +101,7 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>External Cooling Fans Magnetic Mounting for Sony A7M4 A7cII ZV-1 A6700 Cameras</t>
-  </si>
-  <si>
-    <t>1.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTA1MDY4MTI0MzAyOjowOjo&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-14</t>
   </si>
   <si>
     <t>a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
@@ -110,13 +110,19 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTE4NzcxNDM3NjAyOjowOjo&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDExODc3MTQzNzYwMjo6MDo6&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_19_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>NEEWER a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RD4nW7AhtASzYxnpML2IWyYAAAGOYQLZYwEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICDtbV7P/https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sxbs_sbv_search_btf?content-id=amzn1.sym.2f0a8989-0b67-47e7-b61e-9e3ef9908602%3Aamzn1.sym.2f0a8989-0b67-47e7-b61e-9e3ef9908602&amp;crid=GS4KILDPECYF&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.jUTBor_e3Hzv1Y5biCGDwA.QGuESEq5psOMB3tIH2SHfrpOSw4Ei4YiStSl-iyrGZQ&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CGWQW9J1&amp;pd_rd_r=7c1b5b89-354e-41ca-81a9-b18e7bc19de7&amp;pd_rd_w=ksElI&amp;pd_rd_wg=2F9rj&amp;pf_rd_p=2f0a8989-0b67-47e7-b61e-9e3ef9908602&amp;pf_rd_r=T7SMRHPVHS920ED9B3ZN&amp;qid=1711024560&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=1-1-a61ee601-6e56-4862-a8a2-1d3da5a5406f</t>
   </si>
   <si>
     <t>Camera External Cooling System/Cooling Fan for Live Broadcast - with Cooling Sheet - for Sony A7M4/ZVE1/A6700/A7C2/ZV-E10/ZV1/A7C/A7S3/FX3,for Canon R5/R6, for Fujifilm X-T4/XS10 Cameras</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9tdGY6MzAwMTE1NTkzMTMyMDAyOjowOjo&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_12_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfbXRmOjMwMDExNTU5MzEzMjAwMjo6MDo6&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_12_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Camera Case for Sony Alpha 6700, Soft Silicone Protective Cover a6700 DSLR Camera Anti-Scratch Slim Fit Body Skin Protector Housing Sleeve for Sony A6700 Mirrorless Camera Black</t>
@@ -125,10 +131,7 @@
     <t>4.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo5NzYxOTg3MjU0OTAwODA6MTcxMTAxNjU2OTpzcF9idGY6MzAwMTQ1MTU5NjQ0NzAyOjowOjo&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3OVQZPJP2GBDR%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711016569%26sprefix%3Dsony%2Ba%252Caps%252C487%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Easy-Hood-Protective-Anti-Scratch-Mirrorless/dp/B0CRZ4M9LS/ref=sr_1_19?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.HyChLc2M0RDqUC0Dvw1ingna8KfLNYGSvIfPhpCt1_XGjHj071QN20LucGBJIEps.e1rVPpNHxcEnmlIxTnsgDzEEgGb5Ljj4wrfOQ0i5Msg&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016574&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-19</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDE0NTE1OTY0NDcwMjo6MDo6&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_20_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>A6700 Eyecup Eyepiece, Soft Silicon Extended Camera Eye Cup Viewfinder Special Designed for Sony A6700 Alpha APS-C Mirrorless Camera Replaces Sony FDA-EP20 (Not Affect The Use of A6700 Camera Screen)</t>
@@ -137,10 +140,10 @@
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RI976N5GjQMPnbmpgq_1N6gAAAGOYIjqIQEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICAEziDS/https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3OVQZPJP2GBDR&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.ty5KbicKArATe_l4KdWOzg.cnqcr1BBJ0QXFzGx4LiVeRsz6CLmumcIGBybIWm7GLw&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CKT5HJZ9&amp;pd_rd_r=c82d7f5b-0642-4bb1-8b34-bb9a248f9bc3&amp;pd_rd_w=BNhz1&amp;pd_rd_wg=PyLJp&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=P8RATQ53SDHGFV4T04MS&amp;qid=1711016569&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a%2Caps%2C487&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=3OVQZPJP2GBDR&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711016569&amp;sprefix=sony+a%2Caps%2C487&amp;sr=8-16</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RKv9dkDxeAUU5IUKAfbkInIAAAGOYQLZUgEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICBkq1nn/https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=GS4KILDPECYF&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.ty5KbicKArATe_l4KdWOzg.cnqcr1BBJ0QXFzGx4LiVeRsz6CLmumcIGBybIWm7GLw&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CKT5HJZ9&amp;pd_rd_r=bca16ffe-5ece-4fc6-b950-740be3a2219c&amp;pd_rd_w=UASDO&amp;pd_rd_wg=IitcF&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=T7SMRHPVHS920ED9B3ZN&amp;qid=1711024560&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-16</t>
   </si>
   <si>
     <t>New Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, White Smoke with Green Extreme Portable Wireless Charger (Black)</t>
@@ -149,7 +152,7 @@
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_9?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-9</t>
   </si>
   <si>
     <t>NEW Bose Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, Black</t>
@@ -158,19 +161,19 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-5</t>
   </si>
   <si>
     <t>Bose QuietComfort Earbuds II Bundle with Protective Silicone Carrying Case and Cloth - Active Wireless Noise Cancelling in-Ear Bluetooth Headphones with Personalized Sound, Bose Earbuds 2 (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-6</t>
+    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-6</t>
   </si>
   <si>
     <t>QuietComfort Ultra True Wireless Bluetooth Adjustable Noise Cancelling Earbuds, Spatial Audio, Up to 6 Hours of Play Time, Black Bundle with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-11</t>
   </si>
   <si>
     <t>QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation, Black</t>
@@ -179,37 +182,40 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Technics Premium Hi-Fi True Wireless Bluetooth Earbuds with Advanced Noise Cancelling, 3 Device Multipoint Connectivity, Wireless Charging, Hi-Res Audio + Enhanced Calling - EAH-AZ80-K (Black)</t>
+  </si>
+  <si>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RHA4UxdXtSj5VjoDWzwV3XsAAAGOYQMZLgEAAAH2AQBvbm9fdHhuX2JpZDMgICBvbm9fdHhuX2ltcDEgICBvSa3S/https://www.amazon.com/Technics-Bluetooth-Cancelling-Multipoint-Connectivity/dp/B0C5N5KH2M/ref=sxin_35_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2FMUTMIJV6UB&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oGk-2OaglRGXplQ-RC2hSg.EXZjOZYdO2YMEA6D-Si6-43CI1D_GipBTg9GYju1gnQ&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0C5N5KH2M&amp;pd_rd_r=7252f0a7-3b1b-4f1e-a3ad-9537f398c233&amp;pd_rd_w=ma93O&amp;pd_rd_wg=qXVya&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=JNF4PS26NFCG7363D5EZ&amp;qid=1711024576&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=bose%2Caps%2C322&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Triple Black with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_18?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_16?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-16</t>
   </si>
   <si>
     <t>Elite 10 True Wireless Bluetooth Earbuds – Advanced Active Noise Cancelling with Dolby Atmos Surround Sound, All-Day Comfort, Multipoint, Crystal-Clear Calls – Cream</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMDc5ODc4NDU0NzAyOjowOjo&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsr_1_17_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDA3OTg3ODQ1NDcwMjo6MDo6&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Jabra Elite 10 True Wireless Bluetooth Earbuds – Advanced Active Noise Cancelling with Dolby Atmos Surround Sound, All-Day Comfort, Multipoint, Crystal-Clear Calls – Cream</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3OTg3ODQ1NDcwMjo6NDo6&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CB93Y7BM%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Technics HiFi True Wireless Multipoint Bluetooth Earbuds II, Active Noise Cancelling, 3 Device MultiPoint Connectivity, Impressive Call Quality, LDAC Compatible, EAH-AZ40M2-K (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3Mjc5Njg2NzYwMjo6Mzo6&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CFCKJB8M%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>HiFi True Wireless Multipoint Bluetooth Earbuds II, Active Noise Cancelling, 3 Device MultiPoint Connectivity, Impressive Call Quality, LDAC Compatible, EAH-AZ40M2-K (Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9idGY6MzAwMDcyNzk2ODY3NjAyOjowOjo&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsr_1_22_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Elite 8 Active - Best and Most Advanced Sports Wireless Bluetooth Earbuds with Comfortable Secure Fit, Military Grade Durability, Active Noise Cancellation, Dolby Surround Sound – Navy</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjIxMTYxMDI1MTIxMDgwOjE3MTEwMTY1ODM6c3BfYXRmX25leHQ6MzAwMDQyMDQ1MTUxODAyOjowOjo&amp;url=%2FJabra-Elite-Active-Comfortable-Cancellation%2Fdp%2FB0CB92Z7V2%2Fref%3Dsr_1_18_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016583%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3Mjc5Njg2NzYwMjo6Mjo6&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CFCKJB8M%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
@@ -218,28 +224,37 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9hdGY6MzAwMDgwNDY5NDg1NTAyOjowOjo&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_1_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfYXRmOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Soundcore by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4MDQ2OTQ4NTUwMjo6MTo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CCRSQG8K%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CCRSQG8K%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Blue), Small</t>
   </si>
   <si>
-    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_15?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-15</t>
+    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_15?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Black), Small</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NTY5MDM5NjgwNDgxMDgwOjE3MTEwMjQ1ODg6c3BfYXRmX25leHQ6MzAwMDQ5Mzg2Nzk5MzAyOjowOjo&amp;url=%2FJBL-Tune-Flex-Wireless-Cancelling%2Fdp%2FB0C1QNRGHC%2Fref%3Dsr_1_18_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.CAWsB3j9QZykfPyazq-6aAdEv_3jRE6Qczrq38M-gUjGjHj071QN20LucGBJIEps.4kyFBg_WKRxLHt0422lcfqLJR4fAQaMf_3UufkXwJ48%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024588%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
   </si>
   <si>
     <t>Charging Case for QuietComfort Earbuds II, Black</t>
   </si>
   <si>
-    <t>4.4 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_21?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_19?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>Fitness Bluetooth True Wireless Earbuds with Built in Mic 56 Hours of Battery, IPX7 Waterproof, Active Noise Cancellation, Awareness Mode, and Bluetooth 5.3 (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfYnRmOjMwMDA2MDM4MjcyMTcwMjo6MDo6&amp;url=%2FRaycon-Bluetooth-Waterproof-Cancellation-Awareness%2Fdp%2FB0C1LCYRJ9%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>EarMate 1 Open Ear Headphones, Bluetooth 5.3 Wireless Earbuds Air Conduction 45Hrs Playtime with Charging Case, Panoramic Deep Bass with 16.2mm Drivers, Compatible with iPhone Android</t>
@@ -248,61 +263,58 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjIxMTYxMDI1MTIxMDgwOjE3MTEwMTY1ODM6c3BfYXRmX25leHQ6MzAwMTEwNjQ2OTM4NjAyOjowOjo&amp;url=%2FPAINTAUDIO-Headphones-Bluetooth-Conduction-Compatible%2Fdp%2FB0CJLFX773%2Fref%3Dsr_1_17_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016583%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NTY5MDM5NjgwNDgxMDgwOjE3MTEwMjQ1ODg6c3BfYXRmX25leHQ6MzAwMTEwNjQ2OTM4NjAyOjowOjo&amp;url=%2FPAINTAUDIO-Headphones-Bluetooth-Conduction-Compatible%2Fdp%2FB0CJLFX773%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.CAWsB3j9QZykfPyazq-6aAdEv_3jRE6Qczrq38M-gUjGjHj071QN20LucGBJIEps.4kyFBg_WKRxLHt0422lcfqLJR4fAQaMf_3UufkXwJ48%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024588%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
   </si>
   <si>
     <t>Samsung Galaxy Buds FE True Wireless Bluetooth Earbuds, Comfort and Secure in Ear Fit, Wing-Tip Design, Auto Switch Audio, Touch Control, Built-in Voice Assistant, US Version, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_16?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-16</t>
+    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_21?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-21</t>
   </si>
   <si>
     <t>The Everyday Bluetooth Wireless Earbuds with Microphone- Stereo Sound in-Ear Bluetooth Headset True Wireless Earbuds 32 Hours Playtime (Matte Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMDYwMzY5ODUzNzAyOjowOjo&amp;url=%2FEveryday-Raycon-Bluetooth-Wireless-Microphone%2Fdp%2FB095T14D4S%2Fref%3Dsr_1_7_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Everyday-Raycon-Bluetooth-Wireless-Microphone/dp/B095T14D4S/ref=sr_1_20?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.IiGmAttSEa5SyAaNaspq7e_WcyavkwcFsE2MPmuKHgfGjHj071QN20LucGBJIEps.ajygIT2LApuTrd509PftN5mamOAnPAgp91Qr0Z5i4W0&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016583&amp;sprefix=bose%2Caps%2C309&amp;sr=8-20</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDA2MDM2OTg1MzcwMjo6MDo6&amp;url=%2FEveryday-Raycon-Bluetooth-Wireless-Microphone%2Fdp%2FB095T14D4S%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>by Anker Space A40 Auto-Adjustable Active Noise Cancelling Wireless Earbuds, Reduce Noise by Up to 98%, 50H Playtime, Comfortable Fit, Hi-Res Sound, App Customization, Wireless Charge</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_19?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-19</t>
+    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_18?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-18</t>
   </si>
   <si>
     <t>Wireless Earbuds 75hrs Bluetooth 5.3 Headphone Sport, 2024 Bluetooth Earbuds Stereo Deep Bass Over Ear Bud with Earhooks, ENC Noise Cancelling Mic, IPX7 Waterproof Earphone for Workout/Running</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0MzQ4ODIyMjIwMjo6NDo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSXV3GK4%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0MzQ4ODIyMjIwMjo6Mzo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSXV3GK4%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Headphones Wireless Earbuds Sport, Bluetooth 5.3 Over Ear Buds Stereo Deep Bass Headset with Earhooks, 48H Wireless Earphones with HD Mic, IP7 Waterproof Earbud for Sports/Running/Workout</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDUzNzA4OTA2NTcwODA6MTcxMTAxNjU4MDpzcF9tdGY6MzAwMTQ0NTY4OTUxNTAyOjowOjo&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsr_1_12_sspa%3Fcrid%3D31VXPQ472FMMI%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711016580%26sprefix%3Dbose%252Caps%252C309%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjgxOTQzOTMxMjc5MDgwOjE3MTEwMTY1ODA6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NDU2ODk1MTUwMjo6Mjo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsxin_35_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D31VXPQ472FMMI%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxee9CRO5Z6zkW-GjsDKspGHo.wLJw8CWMqmdkCkFo8BSbId8Hm4e9CFlcB5PuRNocgio%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSYWR1R2%26pd_rd_r%3D8b7b8bdc-6af1-4e83-9dc4-b103b2aed1cf%26pd_rd_w%3Dsl473%26pd_rd_wg%3DSG65F%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJPX6P7YQHTX3S7T6M9CB%26qid%3D1711016580%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C309%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDE0NDU2ODk1MTUwMjo6MDo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NDU2ODk1MTUwMjo6MTo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSYWR1R2%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Wireless, Bluetooth, Proprietary Active Noise Cancelling Technology In-Ear Headphones with Personalized Noise Cancellation &amp; Sound, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-4</t>
   </si>
   <si>
     <t>QuietComfort Noise Cancelling Earbuds-Bluetooth Wireless Earphones, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-8</t>
   </si>
   <si>
     <t>SoundSport Free, True Wireless Earbuds, (Sweatproof Bluetooth Headphones for Workouts and Sports), Midnight Blue / Citron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=31VXPQ472FMMI&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBVM7kUU9XI0TNkG6_KDDU4lmaUW_jLHWH44AaSIgVR3clhoefVOr4KEyKO-E4DVn491oVeouK-FjBE8-32u7w2E.ZlTZv8_RUGBLwP6t7RPWfhAkk-C6fwn5pVxE-U1a_U8&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711016580&amp;sprefix=bose%2Caps%2C309&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_10?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-10</t>
   </si>
 </sst>
 </file>
@@ -686,15 +698,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B47E3-4F35-4531-AB7F-866B12844FDF}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4EA09-7ABE-42D5-8590-4D766DD785B2}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="187.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -720,418 +732,435 @@
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
         <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
-        <v>279</v>
+        <v>279.99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>259</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>249</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3">
-        <v>2177</v>
+        <v>2182</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
-        <v>1445</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3">
-        <v>164</v>
+        <v>199.99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3">
+        <v>1449</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3">
+        <v>199.99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1449</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3">
+        <v>163.72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3">
         <v>131</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3">
-        <v>131</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3">
-        <v>159</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2552</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3">
-        <v>129</v>
+        <v>129.99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3">
+        <v>129.99</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3">
-        <v>129</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3">
-        <v>99</v>
+        <v>99.95</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>2492</v>
+        <v>2512</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3">
-        <v>99</v>
+        <v>99.95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
-        <v>58</v>
+        <v>2512</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="3">
-        <v>79</v>
+        <v>89.99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3">
-        <v>860</v>
+        <v>6489</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="3">
-        <v>59</v>
+        <v>89.99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3">
-        <v>28923</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3">
+        <v>871</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3">
+        <v>59.99</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28941</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5353</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3">
+        <v>35.99</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3">
-        <v>28923</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5342</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2690</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="3">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="3">
-        <v>838</v>
+        <v>2701</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3">
-        <v>26</v>
+        <v>26.99</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B24" s="3">
+        <v>26.99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3">
-        <v>11522</v>
+        <v>839</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3">
-        <v>35480</v>
+        <v>11537</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
+        <v>35485</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3">
         <v>39317</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>88</v>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1140,15 +1169,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E83A70-3429-437F-B74C-6079762C76CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E88463-6208-42DD-A8E4-920E09817E90}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="190.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="193.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1177,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>1997</v>
+        <v>1997.67</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1188,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1862</v>
+        <v>1862.94</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1199,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1567</v>
+        <v>1567.72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1221,47 +1250,47 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>1462</v>
+        <v>1462.94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>59</v>
+        <v>59.99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>59</v>
+        <v>59.9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -1272,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>54</v>
+        <v>54.99</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1284,18 +1313,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>49</v>
+        <v>54.99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1306,67 +1335,67 @@
         <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>21</v>
+        <v>49.9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B12" s="1">
-        <v>21</v>
+        <v>21.99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>17</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FDCC2-C115-4A19-BD46-FB9817987C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C38F1C-8489-4930-AF90-9380CD4DD678}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Jeremiah.xlsx
+++ b/Data/Output/Jeremiah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\Activity\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8B8BF7-A1F4-4CED-871C-4CDA46A6A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453A46B-9C45-4597-A27C-B9B978D1A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{72A0315B-6DA0-4D91-ABE7-C34B2C9ED950}"/>
+    <workbookView xWindow="1680" yWindow="1980" windowWidth="21600" windowHeight="11475" xr2:uid="{4D3CA448-7BE0-4EDE-B7C9-9503D584AB95}"/>
   </bookViews>
   <sheets>
     <sheet name="Bose Earbuds" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -56,25 +58,25 @@
     <t>Alpha a6700 Camera with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, and More (10 Items)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-18-135mm-Shoulder/dp/B0CMZND9WZ/ref=sr_1_13?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-13</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E 18-135mm f/3.5-5.6 OSS Lens Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-18-135mm/dp/B0CMZKPY5Q/ref=sr_1_6?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-6</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Corel Mac &amp; PC Software Kit, 2X Extra Battery, Charger, Tripod, Cleaning Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CNSVXJJF/ref=sr_1_5?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-5</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body with E PZ 16-50mm f/3.5-5.6 OSS Lens Bundle with Multi-Device Shoulder Bag, 128GB SD Card, OTG Card Reader, Extra Battery, Smart Charger with LCD Screen</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Multi-Device/dp/B0CMZMS6XM/ref=sr_1_3?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-3</t>
   </si>
   <si>
     <t>Alpha a6700 Mirrorless Camera Body Bundle with Shoulder Bag, 128GB SD Card, Card Reader, Extra Battery, Charger</t>
@@ -83,7 +85,7 @@
     <t>5.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Sony-Alpha-a6700-Mirrorless-Shoulder/dp/B0CMZPMLYS/ref=sr_1_2?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-2</t>
   </si>
   <si>
     <t>External Cooling Fans Magnetic Mounting for Sony A7M4 A7cII ZV-1 A6700 Cameras</t>
@@ -92,7 +94,7 @@
     <t>1.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDEwNTA2ODEyNDMwMjo6MDo6&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDk5MjcwMzQ2Mjk0MDgwOjE3MTEwMzYxMzE6c3BfYnRmOjMwMDEwNTA2ODEyNDMwMjo6MDo6&amp;url=%2FFOMITO-External-Cooling-Magnetic-Mounting%2Fdp%2FB0CKR23ZTT%2Fref%3Dsr_1_21_sspa%3Fcrid%3D221HZSO63ND7S%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711036130%26sprefix%3D%252Caps%252C339%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cage Kit for Sony A6700 with a Cable Clamp for HDMI, Built-in Quick Release Plate for Arca-Type, Film Movie Making Camera Video Cage with Shoe Mount, 1/4''-20 &amp; 3/8''-16 Threaded Holes - 4336</t>
@@ -101,28 +103,31 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-14</t>
+    <t>https://www.amazon.com/SmallRig-Built-Release-Arca-Type-Threaded/dp/B0CF54GL7B/ref=sr_1_14?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>NEEWER a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
+  </si>
+  <si>
+    <t>4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RGFazqjtsag5lb6O7RUBnk8AAAGOYbNm3wEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICCHmJGb/https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=221HZSO63ND7S&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.jUTBor_e3Hzv1Y5biCGDwA.d7mVvC9z_bHeDIhH0lf8g9MFIxPGuqHjGIZ7nC-bSjA&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CGWQW9J1&amp;pd_rd_r=840bf573-cb41-4e3c-af81-23c5ce2c8c25&amp;pd_rd_w=Ey3pH&amp;pd_rd_wg=ZZAEG&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=66WFMTVVSGZGGTK23W6W&amp;qid=1711036130&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Caps%2C339&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
   </si>
   <si>
-    <t>4.2 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDExODc3MTQzNzYwMjo6MDo6&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_19_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>NEEWER a6700 Camera Cage Compatible with Sony Alpha 6700, Aluminum Video Rig with HDMI Cable Clamp, NATO Rails, Cold Shoe 3/8" ARRI 1/4" Thread, QR Base Compatible with Arca Swiss DJI RS Gimbal, CA047</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RD4nW7AhtASzYxnpML2IWyYAAAGOYQLZYwEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICDtbV7P/https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sxbs_sbv_search_btf?content-id=amzn1.sym.2f0a8989-0b67-47e7-b61e-9e3ef9908602%3Aamzn1.sym.2f0a8989-0b67-47e7-b61e-9e3ef9908602&amp;crid=GS4KILDPECYF&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.jUTBor_e3Hzv1Y5biCGDwA.QGuESEq5psOMB3tIH2SHfrpOSw4Ei4YiStSl-iyrGZQ&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CGWQW9J1&amp;pd_rd_r=7c1b5b89-354e-41ca-81a9-b18e7bc19de7&amp;pd_rd_w=ksElI&amp;pd_rd_wg=2F9rj&amp;pf_rd_p=2f0a8989-0b67-47e7-b61e-9e3ef9908602&amp;pf_rd_r=T7SMRHPVHS920ED9B3ZN&amp;qid=1711024560&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=1-1-a61ee601-6e56-4862-a8a2-1d3da5a5406f</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDk5MjcwMzQ2Mjk0MDgwOjE3MTEwMzYxMzE6c3BfYnRmOjMwMDExODc3MTQzNzYwMjo6MDo6&amp;url=%2FNEEWER-Camera-Compatible-Aluminum-Thread%2Fdp%2FB0CGWQW9J1%2Fref%3Dsr_1_20_sspa%3Fcrid%3D221HZSO63ND7S%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711036130%26sprefix%3D%252Caps%252C339%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NEEWER-Camera-Compatible-Aluminum-Thread/dp/B0CGWQW9J1/ref=sr_1_19?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.D0Q8pIc2RBjFumPt7nAQsuFZ4yVCFCiUHhzm6YPbnqvGjHj071QN20LucGBJIEps._oAeAOmx3PmGD0jXWLiumpviaNeY8h-8CwMTfMNHOtQ&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036137&amp;sprefix=%2Caps%2C339&amp;sr=8-19</t>
   </si>
   <si>
     <t>Camera External Cooling System/Cooling Fan for Live Broadcast - with Cooling Sheet - for Sony A7M4/ZVE1/A6700/A7C2/ZV-E10/ZV1/A7C/A7S3/FX3,for Canon R5/R6, for Fujifilm X-T4/XS10 Cameras</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfbXRmOjMwMDExNTU5MzEzMjAwMjo6MDo6&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_12_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDk5MjcwMzQ2Mjk0MDgwOjE3MTEwMzYxMzE6c3BfbXRmOjMwMDExNTU5MzEzMjAwMjo6MDo6&amp;url=%2FKOERTACOO-Camera-External-Cooling-Broadcast%2Fdp%2FB0CJP2FF3Z%2Fref%3Dsr_1_17_sspa%3Fcrid%3D221HZSO63ND7S%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711036130%26sprefix%3D%252Caps%252C339%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Camera Case for Sony Alpha 6700, Soft Silicone Protective Cover a6700 DSLR Camera Anti-Scratch Slim Fit Body Skin Protector Housing Sleeve for Sony A6700 Mirrorless Camera Black</t>
@@ -131,7 +136,7 @@
     <t>4.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDk0MTM4NTkxNjU4MDgwOjE3MTEwMjQ1NjA6c3BfYnRmOjMwMDE0NTE1OTY0NDcwMjo6MDo6&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_20_sspa%3Fcrid%3DGS4KILDPECYF%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711024560%26sprefix%3Dsony%2Ba6700%252Caps%252C5239%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDk5MjcwMzQ2Mjk0MDgwOjE3MTEwMzYxMzE6c3BfYnRmOjMwMDE0NTE1OTY0NDcwMjo6MDo6&amp;url=%2FEasy-Hood-Protective-Anti-Scratch-Mirrorless%2Fdp%2FB0CRZ4M9LS%2Fref%3Dsr_1_19_sspa%3Fcrid%3D221HZSO63ND7S%26dib%3DeyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M%26dib_tag%3Dse%26keywords%3DSony%2Ba6700%26qid%3D1711036130%26sprefix%3D%252Caps%252C339%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>A6700 Eyecup Eyepiece, Soft Silicon Extended Camera Eye Cup Viewfinder Special Designed for Sony A6700 Alpha APS-C Mirrorless Camera Replaces Sony FDA-EP20 (Not Affect The Use of A6700 Camera Screen)</t>
@@ -140,19 +145,22 @@
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RKv9dkDxeAUU5IUKAfbkInIAAAGOYQLZUgEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICBkq1nn/https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=GS4KILDPECYF&amp;cv_ct_cx=Sony+a6700&amp;dib=eyJ2IjoiMSJ9.ty5KbicKArATe_l4KdWOzg.cnqcr1BBJ0QXFzGx4LiVeRsz6CLmumcIGBybIWm7GLw&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;pd_rd_i=B0CKT5HJZ9&amp;pd_rd_r=bca16ffe-5ece-4fc6-b950-740be3a2219c&amp;pd_rd_w=UASDO&amp;pd_rd_wg=IitcF&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=T7SMRHPVHS920ED9B3ZN&amp;qid=1711024560&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=GS4KILDPECYF&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aUF5VVgUDxzDOKJp2iXbPs5O8uFa1V9IxPJb1C8pSS-jI0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.MolYbHqqmsITdHV00exK8x-rw7Es8NApOa9aWgzCLHc&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711024560&amp;sprefix=sony+a6700%2Caps%2C5239&amp;sr=8-16</t>
+    <t>https://www.amazon.com/Eyepiece-Extended-Viewfinder-Designed-Mirrorless/dp/B0CKT5HJZ9/ref=sr_1_16?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.9y4vfmbyjTeVag1EOzwBBNSQqxaStY4ry_rJPP2Z8NQSjK7mCPU2iURNseLOL560LJoJLF-69IaXOrsciuLMRzoKKCzN5EfIwvkSls1Re7YSQsMpaziKv_oPcqZO71aU441_EM7K1tXCxXTiRhfef5iGq3jlbBvwqViYSY8jFfQ0gaD8uUiYyq4Stjpx6tbxCvu5F7RinFjECv9YmWVWIIw0fZ6vUmWRlLqyTCvj-K4.59yOaZfnWoKyjzva2VEagPqktFJbohSvgFMddBQG-0M&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036130&amp;sprefix=%2Caps%2C339&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Screen Protector for Sony Alpha A7C II A6700 6700 7C II ZV-E1 ZVE1 A7C2 Camera &amp; Hot Shoe Cover 0.3mm 9H Hardness Tempered Glass Cover Anti-Scrach Anti-Fingerprint Anti-Bubble [3+2 Pack]</t>
+  </si>
+  <si>
+    <t>4.6 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ULBTER-Protector-Anti-Scrach-Anti-Fingerprint-Anti-Bubble/dp/B0C23V2L58/ref=sr_1_20?crid=221HZSO63ND7S&amp;dib=eyJ2IjoiMSJ9.D0Q8pIc2RBjFumPt7nAQsuFZ4yVCFCiUHhzm6YPbnqvGjHj071QN20LucGBJIEps._oAeAOmx3PmGD0jXWLiumpviaNeY8h-8CwMTfMNHOtQ&amp;dib_tag=se&amp;keywords=Sony+a6700&amp;qid=1711036137&amp;sprefix=%2Caps%2C339&amp;sr=8-20</t>
   </si>
   <si>
     <t>New Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, White Smoke with Green Extreme Portable Wireless Charger (Black)</t>
   </si>
   <si>
-    <t>4.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_9?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Bose-Ultra-Open-Earbuds-Technology/dp/B0CVQTPQ2W/ref=sr_1_10?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-10</t>
   </si>
   <si>
     <t>NEW Bose Ultra Open Earbuds with OpenAudio Technology, Open Ear Wireless Earbuds, Up to 48 Hours of Battery Life, Black</t>
@@ -161,19 +169,19 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Bose-Earbuds-OpenAudio-Technology-Wireless/dp/B0CPFV77W4/ref=sr_1_5?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-5</t>
   </si>
   <si>
     <t>Bose QuietComfort Earbuds II Bundle with Protective Silicone Carrying Case and Cloth - Active Wireless Noise Cancelling in-Ear Bluetooth Headphones with Personalized Sound, Bose Earbuds 2 (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-6</t>
+    <t>https://www.amazon.com/QuietComfort-Earbuds-Protective-Silicone-Carrying/dp/B0CSQZYY2J/ref=sr_1_6?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-6</t>
   </si>
   <si>
     <t>QuietComfort Ultra True Wireless Bluetooth Adjustable Noise Cancelling Earbuds, Spatial Audio, Up to 6 Hours of Play Time, Black Bundle with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Ultra-Adjustable-Cancelling/dp/B0CKBMLLYX/ref=sr_1_11?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-11</t>
   </si>
   <si>
     <t>QuietComfort Ultra Wireless Noise Cancelling Earbuds, Bluetooth Noise Cancelling Earbuds with Spatial Audio and World-Class Noise Cancellation, Black</t>
@@ -182,7 +190,7 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-World-Class-Cancellation/dp/B0CD2FSRDD/ref=sr_1_3?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-3</t>
   </si>
   <si>
     <t>Technics Premium Hi-Fi True Wireless Bluetooth Earbuds with Advanced Noise Cancelling, 3 Device Multipoint Connectivity, Wireless Charging, Hi-Res Audio + Enhanced Calling - EAH-AZ80-K (Black)</t>
@@ -191,31 +199,13 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RHA4UxdXtSj5VjoDWzwV3XsAAAGOYQMZLgEAAAH2AQBvbm9fdHhuX2JpZDMgICBvbm9fdHhuX2ltcDEgICBvSa3S/https://www.amazon.com/Technics-Bluetooth-Cancelling-Multipoint-Connectivity/dp/B0C5N5KH2M/ref=sxin_35_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2FMUTMIJV6UB&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oGk-2OaglRGXplQ-RC2hSg.EXZjOZYdO2YMEA6D-Si6-43CI1D_GipBTg9GYju1gnQ&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0C5N5KH2M&amp;pd_rd_r=7252f0a7-3b1b-4f1e-a3ad-9537f398c233&amp;pd_rd_w=ma93O&amp;pd_rd_wg=qXVya&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=JNF4PS26NFCG7363D5EZ&amp;qid=1711024576&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=bose%2Caps%2C322&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+    <t>https://aax-us-iad.amazon.com/x/c/REKdppd-SHc69npQOPGVywoAAAGOYbPEAwEAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDEgICDFbbAC/https://www.amazon.com/Technics-Bluetooth-Cancelling-Multipoint-Connectivity/dp/B0C5N5KH2M/ref=sxin_34_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oGk-2OaglRGXplQ-RC2hSg.RHctXfO5S6OFw_U4BPFWpMl4Iq7HOfgK_RgQiqFaNvQ&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0C5N5KH2M&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=yY8H8&amp;pd_rd_wg=UHch5&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Triple Black with Alternate Sizing Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_16?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Elite 10 True Wireless Bluetooth Earbuds – Advanced Active Noise Cancelling with Dolby Atmos Surround Sound, All-Day Comfort, Multipoint, Crystal-Clear Calls – Cream</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDA3OTg3ODQ1NDcwMjo6MDo6&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Jabra Elite 10 True Wireless Bluetooth Earbuds – Advanced Active Noise Cancelling with Dolby Atmos Surround Sound, All-Day Comfort, Multipoint, Crystal-Clear Calls – Cream</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3OTg3ODQ1NDcwMjo6NDo6&amp;url=%2FJabra-Elite-True-Wireless-Earbuds%2Fdp%2FB0CB93Y7BM%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CB93Y7BM%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Technics HiFi True Wireless Multipoint Bluetooth Earbuds II, Active Noise Cancelling, 3 Device MultiPoint Connectivity, Impressive Call Quality, LDAC Compatible, EAH-AZ40M2-K (Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA3Mjc5Njg2NzYwMjo6Mjo6&amp;url=%2FTechnics-Multipoint-Cancelling-Connectivity-EAH-AZ40M2-K%2Fdp%2FB0CFCKJB8M%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CFCKJB8M%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Earbuds-II-Alternate/dp/B0BJVVFD69/ref=sr_1_15?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-15</t>
   </si>
   <si>
     <t>by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
@@ -224,37 +214,19 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfYXRmOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Soundcore by Anker AeroFit Pro Open-Ear Headphones, Ultra Comfort, Secure Fit, Ergonomic Design, Rich Sound with LDAC, Bluetooth 5.3, IPX5 Water-Resistant, 46H Playtime, App Control, Wireless Earbuds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CCRSQG8K%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfbXRmOjMwMDA4MDQ2OTQ4NTUwMjo6MDo6&amp;url=%2FSoundcore-Headphones-Ergonomic-Bluetooth-Water-Resistant%2Fdp%2FB0CCRSQG8K%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Blue), Small</t>
   </si>
   <si>
-    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_15?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Tune Flex - True Wireless Noise Cancelling Earbuds (Black), Small</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NTY5MDM5NjgwNDgxMDgwOjE3MTEwMjQ1ODg6c3BfYXRmX25leHQ6MzAwMDQ5Mzg2Nzk5MzAyOjowOjo&amp;url=%2FJBL-Tune-Flex-Wireless-Cancelling%2Fdp%2FB0C1QNRGHC%2Fref%3Dsr_1_18_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.CAWsB3j9QZykfPyazq-6aAdEv_3jRE6Qczrq38M-gUjGjHj071QN20LucGBJIEps.4kyFBg_WKRxLHt0422lcfqLJR4fAQaMf_3UufkXwJ48%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024588%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+    <t>https://www.amazon.com/JBL-Tune-Flex-Wireless-Cancelling/dp/B0C1QQYP53/ref=sr_1_19?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-19</t>
   </si>
   <si>
     <t>Charging Case for QuietComfort Earbuds II, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_19?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>Fitness Bluetooth True Wireless Earbuds with Built in Mic 56 Hours of Battery, IPX7 Waterproof, Active Noise Cancellation, Awareness Mode, and Bluetooth 5.3 (Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfYnRmOjMwMDA2MDM4MjcyMTcwMjo6MDo6&amp;url=%2FRaycon-Bluetooth-Waterproof-Cancellation-Awareness%2Fdp%2FB0C1LCYRJ9%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Bose-Charging-QuietComfort-Earbuds-Black/dp/B0BTBW4YMG/ref=sr_1_16?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-16</t>
   </si>
   <si>
     <t>EarMate 1 Open Ear Headphones, Bluetooth 5.3 Wireless Earbuds Air Conduction 45Hrs Playtime with Charging Case, Panoramic Deep Bass with 16.2mm Drivers, Compatible with iPhone Android</t>
@@ -263,58 +235,106 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NTY5MDM5NjgwNDgxMDgwOjE3MTEwMjQ1ODg6c3BfYXRmX25leHQ6MzAwMTEwNjQ2OTM4NjAyOjowOjo&amp;url=%2FPAINTAUDIO-Headphones-Bluetooth-Conduction-Compatible%2Fdp%2FB0CJLFX773%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.CAWsB3j9QZykfPyazq-6aAdEv_3jRE6Qczrq38M-gUjGjHj071QN20LucGBJIEps.4kyFBg_WKRxLHt0422lcfqLJR4fAQaMf_3UufkXwJ48%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024588%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfbXRmOjMwMDExMDY0NjkzODYwMjo6MDo6&amp;url=%2FPAINTAUDIO-Headphones-Bluetooth-Conduction-Compatible%2Fdp%2FB0CJLFX773%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Open Ear Clip Wireless Earbuds Bluetooth 5.3, Sports Earphones Built-in Microphone with Earhooks &amp; Ear Hook, Wireless Charging Case &amp; Display, Waterproof Fitness Headphones for Running</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfYXRmOjMwMDE1MjMzODA4MDAwMjo6MDo6&amp;url=%2FBluetooth-Earphones-Microphone-Waterproof-Headphones%2Fdp%2FB0CQQF6QKZ%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Samsung Galaxy Buds FE True Wireless Bluetooth Earbuds, Comfort and Secure in Ear Fit, Wing-Tip Design, Auto Switch Audio, Touch Control, Built-in Voice Assistant, US Version, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_21?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>The Everyday Bluetooth Wireless Earbuds with Microphone- Stereo Sound in-Ear Bluetooth Headset True Wireless Earbuds 32 Hours Playtime (Matte Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDA2MDM2OTg1MzcwMjo6MDo6&amp;url=%2FEveryday-Raycon-Bluetooth-Wireless-Microphone%2Fdp%2FB095T14D4S%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/SAMSUNG-Wireless-Bluetooth-Wing-Tip-Assistant/dp/B0CF7GYNW2/ref=sr_1_21?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Wireless Earbuds Bluetooth Headphones Sports Over-Ear Bluetooth 5.3 Ear Buds with Earhooks 120H Playtime Wireless Headphones for Workout Waterproof Bluetooth LED Power Display</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfYnRmOjMwMDE0OTIxODMwMTQwMjo6MDo6&amp;url=%2FWireless-Bluetooth-Headphones-Over-Ear-Waterproof%2Fdp%2FB0CS6PXH92%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
   <si>
     <t>by Anker Space A40 Auto-Adjustable Active Noise Cancelling Wireless Earbuds, Reduce Noise by Up to 98%, 50H Playtime, Comfortable Fit, Hi-Res Sound, App Customization, Wireless Charge</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_18?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Soundcore-Auto-Adjustable-Cancelling-Wireless-Headphone/dp/B0B1LVC5VZ/ref=sr_1_20?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>OYIB Wireless Earbuds, Bluetooth 5.3 Headphones with 4 Mics ENC Clear Call, Bluetooth Earbuds Touch Control 25Hour Stereo Sound with LED Power Display, Waterproof Earphones Sprot for Workout, Green</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/OYIB-Bluetooth-Headphones-Waterproof-Earphones/dp/B0CFGHQXQC/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0CFGHQXQC&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-4-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
   </si>
   <si>
     <t>Wireless Earbuds 75hrs Bluetooth 5.3 Headphone Sport, 2024 Bluetooth Earbuds Stereo Deep Bass Over Ear Bud with Earhooks, ENC Noise Cancelling Mic, IPX7 Waterproof Earphone for Workout/Running</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0MzQ4ODIyMjIwMjo6Mzo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSXV3GK4%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Headphones Wireless Earbuds Sport, Bluetooth 5.3 Over Ear Buds Stereo Deep Bass Headset with Earhooks, 48H Wireless Earphones with HD Mic, IP7 Waterproof Earbud for Sports/Running/Workout</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MTQ4MjQyODk0NDk4MDgwOjE3MTEwMjQ1NzY6c3BfbXRmOjMwMDE0NDU2ODk1MTUwMjo6MDo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2FMUTMIJV6UB%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711024576%26sprefix%3Dbose%252Caps%252C322%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNDY1NDA3OTE3NjYwMDgwOjE3MTEwMjQ1NzY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NDU2ODk1MTUwMjo6MTo6&amp;url=%2FCsasan-Headphones-Bluetooth-Earphones-Waterproof%2Fdp%2FB0CSYWR1R2%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2FMUTMIJV6UB%26cv_ct_cx%3DBose%2BEarbuds%26dib%3DeyJ2IjoiMSJ9.PgoLtZ8GOeLmqeJZJyHY00qtuwJVxmaucA2KAgMQxeeqjzTGZpmCdXSzCle--kFAf-zwvGxQMblbIW0ENP6VCQ.fxxtkaAtbm3_30ReGpZWbDgELxAWNJOV_LwVjMgZsvQ%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26pd_rd_i%3DB0CSYWR1R2%26pd_rd_r%3D7252f0a7-3b1b-4f1e-a3ad-9537f398c233%26pd_rd_w%3DsQ5ae%26pd_rd_wg%3DqXVya%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DJNF4PS26NFCG7363D5EZ%26qid%3D1711024576%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dbose%252Caps%252C322%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfbXRmOjMwMDE0MzQ4ODIyMjIwMjo6MDo6&amp;url=%2FWireless-Bluetooth-Headphone-Cancelling-Waterproof%2Fdp%2FB0CSXV3GK4%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Tonal Dots Wireless Earbuds Bluetooth 5.3 Headphones Built-in ENC Noise Cancelling Mic, 55H Playtime LED Digital Display with Wireless Charging Case, App Control Immersive Premium Sound Champagne</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TOZO-Wireless-Bluetooth-Headphones-Champagne/dp/B07MQDH3RC/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B07MQDH3RC&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-2-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>NC2 Hybrid Active Noise Cancelling Wireless Earbuds, in-Ear Detection Headphones, IPX6 Waterproof Bluetooth 5.3 Stereo Earphones, Immersive Sound Premium Deep Bass Headset, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TOZO-Cancelling-Detection-Headphones-Waterproof/dp/B08L7D38ZL/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B08L7D38ZL&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-3-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>T6 Wireless Earbuds Bluetooth 5.3 Headphones, Ergonomic Design in-Ear Headset, 50Hrs Playtime with Wireless Charging Case, APP EQ Customisable, IPX8 Waterproof, New Upgraded Version</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TOZO-T6-Headphones-Customisable-Waterproof/dp/B0CH9J9JT7/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0CH9J9JT7&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-1-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>T9 True Wireless Earbuds Environmental Noise Cancellation 4 Mic Call Noise Cancelling Headphones and Deep Bass with Light Weight Wireless Charging Case IPX7 Waterproof Built-in Mic Headset White</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TOZO-T9-Wireless-Headphones-Bluetooth/dp/B07RMSYVFK/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B07RMSYVFK&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-5-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Wireless Earbuds 2024 Bluetooth 5.3 Headphones HiFi Stereo, 40H Playtime in-Ear Earbud, Bluetooth Earbuds with LED Power Display, IP7 Waterproof Wireless Earphones Sport Headset for Android iOS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Wireless-Bluetooth-Headphones-Waterproof-Earphones/dp/B0CF4KQTT7/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0CF4KQTT7&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-7-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Bluetooth Headphones Wireless Earbuds 80hrs Playtime Wireless Charging Case Digital Display Sports Ear buds with Earhook Premium Deep Bass IPX7 Waterproof Over-Ear Earphones for TV Phone Laptop Olive</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bluetooth-Headphones-Wireless-Waterproof-Earphones/dp/B0CHP177FN/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2H900S61V9MGO&amp;cv_ct_cx=Bose+Earbuds&amp;dib=eyJ2IjoiMSJ9.oLlIExg3pdFYi2SD0vo9iLQrJ_N1WsfgWTY8KnqfJh3KTFJF35tOJsn6anFMbT9rBFmdr_Fkx3k9_MUYr5epAgqEElpYAQW1cNWps9qD6ck.hLQkzF-6AMyDCXdwrdsECFeheoPVbeKpKjOnUVESeBs&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;pd_rd_i=B0CHP177FN&amp;pd_rd_r=b38c2771-1cdc-4c8e-9c69-a9aafa78e05b&amp;pd_rd_w=HIYj1&amp;pd_rd_wg=UHch5&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=99J6A5BBB5P7B5Q0FNNJ&amp;qid=1711036154&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=1-6-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Wireless Earbuds Ear Buds 68H Playtime Bluetooth 5.3 Headphones with Dual Power Display Charging Case IPX7 Waterproof Deep Bass Earphone with Microphone Headset for Phone Tablet TV Business Sport</t>
+  </si>
+  <si>
+    <t>4.9 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MjU2MzM1MTQwNzc4MDgwOjE3MTEwMzYxNTQ6c3BfYXRmOjMwMDE0NjA0MzgxMTYwMjo6MDo6&amp;url=%2FWireless-Bluetooth-Headphones-Waterproof-Microphone%2Fdp%2FB0CW9SB75S%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2H900S61V9MGO%26dib%3DeyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg%26dib_tag%3Dse%26keywords%3DBose%2BEarbuds%26qid%3D1711036154%26sprefix%3Dsony%2Ba6700%252Caps%252C339%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>QuietComfort Earbuds II, Wireless, Bluetooth, Proprietary Active Noise Cancelling Technology In-Ear Headphones with Personalized Noise Cancellation &amp; Sound, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Cancelling-Personalized-Cancellation/dp/B0B4PSQHD5/ref=sr_1_4?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-4</t>
   </si>
   <si>
     <t>QuietComfort Noise Cancelling Earbuds-Bluetooth Wireless Earphones, Triple Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Bose-QuietComfort-Noise-Cancelling-Earbuds/dp/B08C4KWM9T/ref=sr_1_8?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-8</t>
   </si>
   <si>
     <t>SoundSport Free, True Wireless Earbuds, (Sweatproof Bluetooth Headphones for Workouts and Sports), Midnight Blue / Citron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_10?crid=2FMUTMIJV6UB&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDA1KuCEvsljzfnHpzujzc6xSmcMXFu-m6G8LRV1DmtwhKAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdJC7o2ExDS27Q9WJ508WwpK2LtuAtjcQ9FRGb6OkDR80gwiT2-zHizjJEM3xsl4AU6EAfV31M8kEKKDzwR0Hp4.zwlFFFeTwUSi8qWw1YpO7DnI5n-PNr9pD4O7kqYTmk4&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711024576&amp;sprefix=bose%2Caps%2C322&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Bose-SoundSport-Truly-Wireless-Headphones/dp/B0748JM8M5/ref=sr_1_9?crid=2H900S61V9MGO&amp;dib=eyJ2IjoiMSJ9.YVNJg1wQAZS-NUO_XfH3uSamkyTqIZLwuybQlXNSpPdU5-_FP1xKTRtV-XGGZXlDwkojWHqR-N7R8q9Q8LCHmNo6qJxKih5q7fsvkZCICO5KAX6k7Qam5XRZOePNTOkm0Uv_qPvdJbx0D4pSnv2BBdkzTq6A-0fbdkO0ecOJlYjY3WsNh0MJfj-vA9sfl6I40sBAGeIogp88lIjYM9DKMh-EW5RQG5JGYjJ0CA7x3gE.Tt2FrMZJR9mX-sDKe4SI3YhU9JkfP0NZT7wSIfIY0cg&amp;dib_tag=se&amp;keywords=Bose+Earbuds&amp;qid=1711036154&amp;sprefix=sony+a6700%2Caps%2C339&amp;sr=8-9</t>
   </si>
 </sst>
 </file>
@@ -371,14 +391,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,479 +712,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4EA09-7ABE-42D5-8590-4D766DD785B2}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01475E36-D2A5-4CBE-B7CA-C0A0E0FDD2C7}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="187.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="190.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
         <v>309</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
         <v>299</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
         <v>347</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>279.99</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3">
-        <v>279.99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
         <v>259</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
         <v>249</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
         <v>2182</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>239.2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>341</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1">
+        <v>209</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>129.99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1">
+        <v>228</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1">
+        <v>99.95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2513</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1">
+        <v>89.99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1168</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>871</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1">
         <v>49</v>
       </c>
-      <c r="B7" s="3">
-        <v>239</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3">
-        <v>341</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5353</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19503</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35.99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1">
+        <v>35.99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1">
+        <v>74683</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30999</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3">
-        <v>209</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3">
-        <v>199.99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1449</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3">
-        <v>199.99</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1449</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D21" s="1">
+        <v>263060</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12423</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11454</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12282</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="1">
+        <v>326</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11537</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1">
+        <v>35485</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="3">
-        <v>163.72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3">
-        <v>131</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3">
-        <v>228</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3">
-        <v>99.95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2512</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3">
-        <v>99.95</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2512</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3">
-        <v>99</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3">
-        <v>89.99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6489</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3">
-        <v>89.99</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="3">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3">
-        <v>871</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="3">
-        <v>59.99</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3">
-        <v>28941</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5353</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="3">
-        <v>35.99</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2701</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="3">
-        <v>26.99</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="3">
-        <v>839</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="3">
-        <v>26.99</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="3">
-        <v>839</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3">
-        <v>11537</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3">
-        <v>35485</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="D28" s="1">
         <v>39317</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E88463-6208-42DD-A8E4-920E09817E90}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF770456-8BAA-4523-AED1-3CC2BB9BEB4F}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1296,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,66 +1362,66 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54.99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
         <v>21.99</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="1">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2147</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>17.989999999999998</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>2147</v>
@@ -1398,13 +1430,31 @@
         <v>35</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>106</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C38F1C-8489-4930-AF90-9380CD4DD678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AF92ED-44DB-43C7-BCFD-6B68AAFED571}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
